--- a/math/6.dao_ham.xlsx
+++ b/math/6.dao_ham.xlsx
@@ -1,24 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Định nghĩa" sheetId="1" r:id="rId1"/>
+    <sheet name="Quy tắt tính đạo hàm" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Định nghĩa</t>
+  </si>
+  <si>
+    <t>Ý nghĩa hình học của đạo hàm</t>
+  </si>
+  <si>
+    <t>Đạo hàm của hàm số f(x) tạo điểm x0 chính là hệ số góc của tiếp tuyến có phương trình là</t>
+  </si>
+  <si>
+    <t>Ý nghĩa cơ học của đạo hàm</t>
+  </si>
+  <si>
+    <t>Vận tốc tức thời v(t0) tại thời điểm t0 của một chuyển động có phương tình s=s(t) bằng đạo hàm của hàm số s=s(t) tại điểm t0</t>
+  </si>
+  <si>
+    <t>Đạo hàm tổng hiệu của hàm số</t>
+  </si>
+  <si>
+    <t>Đạo hàm tích thương của hàm số</t>
+  </si>
+  <si>
+    <t>Đao hàm một số hàm thường gặp</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -46,15 +82,335 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>236607</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>45843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="449580"/>
+          <a:ext cx="4465707" cy="1425063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>221457</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175506</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="815340" y="2087880"/>
+          <a:ext cx="5502117" cy="2842506"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76363</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632460" y="5768340"/>
+          <a:ext cx="1882303" cy="472481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91552</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>106714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624840" y="7033260"/>
+          <a:ext cx="1295512" cy="388654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>144955</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="563880" y="365760"/>
+          <a:ext cx="2019475" cy="472481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99280</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137188</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1463040"/>
+          <a:ext cx="2537680" cy="320068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152619</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>167699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="678180" y="2042160"/>
+          <a:ext cx="2522439" cy="685859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533710</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76365</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3291840"/>
+          <a:ext cx="3581710" cy="1905165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,37 +699,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>